--- a/Assets/Data/Item_Data.xlsx
+++ b/Assets/Data/Item_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Raft_tracing\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\Github\Raft_tracing\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,38 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_img_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_name_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_handAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_stackable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_maxstack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_materials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,24 +301,54 @@
   <si>
     <t>{"Scrap": 2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_name</t>
+  </si>
+  <si>
+    <t>name_kr</t>
+  </si>
+  <si>
+    <t>handAction</t>
+  </si>
+  <si>
+    <t>stackable</t>
+  </si>
+  <si>
+    <t>maxstack</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -673,84 +663,84 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G1" activeCellId="1" sqref="H1:H1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -761,28 +751,28 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>67</v>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -793,28 +783,28 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>69</v>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -825,28 +815,28 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -857,28 +847,28 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>71</v>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -889,28 +879,28 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>68</v>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -921,28 +911,28 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>72</v>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -953,28 +943,28 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>73</v>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -985,28 +975,28 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>74</v>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1017,28 +1007,28 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
-        <v>75</v>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1049,28 +1039,28 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>76</v>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1081,28 +1071,28 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
-        <v>77</v>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1113,28 +1103,28 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>78</v>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1145,28 +1135,28 @@
       <c r="F15">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>79</v>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1177,17 +1167,17 @@
       <c r="F16">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
-        <v>80</v>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
